--- a/Code/Results/Cases/Case_8_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.09362886333775</v>
+        <v>17.87390188073188</v>
       </c>
       <c r="C2">
-        <v>13.70521752999539</v>
+        <v>14.23766938727008</v>
       </c>
       <c r="D2">
-        <v>6.512151314620483</v>
+        <v>6.713285505469464</v>
       </c>
       <c r="E2">
-        <v>9.613189452428559</v>
+        <v>9.792144458841191</v>
       </c>
       <c r="F2">
-        <v>23.61306552086747</v>
+        <v>22.94097909448201</v>
       </c>
       <c r="G2">
-        <v>2.090378333885678</v>
+        <v>2.528934821670858</v>
       </c>
       <c r="H2">
-        <v>1.725915660521336</v>
+        <v>1.621034165975034</v>
       </c>
       <c r="I2">
-        <v>2.668710587516523</v>
+        <v>2.802287774426718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.02173836808099</v>
+        <v>13.39662890061636</v>
       </c>
       <c r="L2">
-        <v>6.483510578361706</v>
+        <v>11.8126661874926</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.047837722412927</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.534047986700088</v>
       </c>
       <c r="O2">
-        <v>14.57253875173726</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.43526933895682</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.69699938651322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.57344799057948</v>
+      </c>
+      <c r="R2">
+        <v>12.36468422869968</v>
+      </c>
+      <c r="S2">
+        <v>16.08025591792327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90061488303381</v>
+        <v>16.74051994235548</v>
       </c>
       <c r="C3">
-        <v>12.8385918121468</v>
+        <v>13.29981156741729</v>
       </c>
       <c r="D3">
-        <v>6.300716997927691</v>
+        <v>6.512845198090214</v>
       </c>
       <c r="E3">
-        <v>9.355123490640882</v>
+        <v>9.561647435074917</v>
       </c>
       <c r="F3">
-        <v>23.05200026707776</v>
+        <v>22.38977088820429</v>
       </c>
       <c r="G3">
-        <v>2.094404802621673</v>
+        <v>3.054828877164658</v>
       </c>
       <c r="H3">
-        <v>1.944712821120643</v>
+        <v>1.817878362021154</v>
       </c>
       <c r="I3">
-        <v>2.519439109271171</v>
+        <v>2.680176398664029</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.0612937730773</v>
+        <v>13.44040230010734</v>
       </c>
       <c r="L3">
-        <v>6.397389988973015</v>
+        <v>11.94711412434284</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.984328858740013</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.462111193960629</v>
       </c>
       <c r="O3">
-        <v>13.82502155825696</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.52773868057581</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.44013430803441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.81797168967258</v>
+      </c>
+      <c r="R3">
+        <v>12.42588442776554</v>
+      </c>
+      <c r="S3">
+        <v>15.81976126267299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.12079935251404</v>
+        <v>15.99967624252901</v>
       </c>
       <c r="C4">
-        <v>12.27929464280728</v>
+        <v>12.6942406317076</v>
       </c>
       <c r="D4">
-        <v>6.168248839115872</v>
+        <v>6.388317073964036</v>
       </c>
       <c r="E4">
-        <v>9.192538996344499</v>
+        <v>9.41724811839396</v>
       </c>
       <c r="F4">
-        <v>22.70849043987885</v>
+        <v>22.04880821916744</v>
       </c>
       <c r="G4">
-        <v>2.096963751997253</v>
+        <v>3.389290856059828</v>
       </c>
       <c r="H4">
-        <v>2.084039547680092</v>
+        <v>1.943336118088257</v>
       </c>
       <c r="I4">
-        <v>2.520381554029871</v>
+        <v>2.603166689412042</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.09014603337449</v>
+        <v>13.46957578449844</v>
       </c>
       <c r="L4">
-        <v>6.342992694758438</v>
+        <v>12.03102776876749</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.965567896893091</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.416751172944132</v>
       </c>
       <c r="O4">
-        <v>13.34572484297395</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.58690224809627</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.28671921897153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.33285131032527</v>
+      </c>
+      <c r="R4">
+        <v>12.46602937571722</v>
+      </c>
+      <c r="S4">
+        <v>15.66075349681189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78563014262336</v>
+        <v>15.68107033081583</v>
       </c>
       <c r="C5">
-        <v>12.05382405979242</v>
+        <v>12.44932711024676</v>
       </c>
       <c r="D5">
-        <v>6.11503893571419</v>
+        <v>6.338651607382531</v>
       </c>
       <c r="E5">
-        <v>9.125591526804035</v>
+        <v>9.358056616193219</v>
       </c>
       <c r="F5">
-        <v>22.56205116155655</v>
+        <v>21.90242984962805</v>
       </c>
       <c r="G5">
-        <v>2.098034788418402</v>
+        <v>3.529357754758893</v>
       </c>
       <c r="H5">
-        <v>2.142312965138206</v>
+        <v>1.99582893036898</v>
       </c>
       <c r="I5">
-        <v>2.564932166828217</v>
+        <v>2.572222647027042</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.09804528370093</v>
+        <v>13.47711412424442</v>
       </c>
       <c r="L5">
-        <v>6.320198962636575</v>
+        <v>12.06112511109066</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.960135379085768</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.39774062494201</v>
       </c>
       <c r="O5">
-        <v>13.14569108281714</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.61217752466875</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.21986469644841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.13019818538048</v>
+      </c>
+      <c r="R5">
+        <v>12.48368050023009</v>
+      </c>
+      <c r="S5">
+        <v>15.59068611817943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.72259461300724</v>
+        <v>15.62090412301399</v>
       </c>
       <c r="C6">
-        <v>12.02731269464817</v>
+        <v>12.4195870188621</v>
       </c>
       <c r="D6">
-        <v>6.107857246778186</v>
+        <v>6.332080659528081</v>
       </c>
       <c r="E6">
-        <v>9.11478816798744</v>
+        <v>9.348595215297236</v>
       </c>
       <c r="F6">
-        <v>22.52937246642023</v>
+        <v>21.869602748959</v>
       </c>
       <c r="G6">
-        <v>2.098221430322621</v>
+        <v>3.553800099650232</v>
       </c>
       <c r="H6">
-        <v>2.152342436691544</v>
+        <v>2.004858771796072</v>
       </c>
       <c r="I6">
-        <v>2.576516804742631</v>
+        <v>2.568479356812601</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.09335296414267</v>
+        <v>13.47240888393465</v>
       </c>
       <c r="L6">
-        <v>6.316090928996797</v>
+        <v>12.06072119846776</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.955983816385324</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.394287617331469</v>
       </c>
       <c r="O6">
-        <v>13.11245535708892</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.61711768999236</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.20216341451407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.09650461047764</v>
+      </c>
+      <c r="R6">
+        <v>12.48746101615374</v>
+      </c>
+      <c r="S6">
+        <v>15.57228580721421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09858210853587</v>
+        <v>15.95938596038523</v>
       </c>
       <c r="C7">
-        <v>12.30652887760493</v>
+        <v>12.68772516209018</v>
       </c>
       <c r="D7">
-        <v>6.172095082350153</v>
+        <v>6.403013343699672</v>
       </c>
       <c r="E7">
-        <v>9.192656031770216</v>
+        <v>9.422171029390837</v>
       </c>
       <c r="F7">
-        <v>22.68378519202771</v>
+        <v>21.97737643947248</v>
       </c>
       <c r="G7">
-        <v>2.096998097620956</v>
+        <v>3.457275216249271</v>
       </c>
       <c r="H7">
-        <v>2.085561569920311</v>
+        <v>1.946230073173961</v>
       </c>
       <c r="I7">
-        <v>2.531909363081233</v>
+        <v>2.604769259003641</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.07367361338374</v>
+        <v>13.43455823113853</v>
       </c>
       <c r="L7">
-        <v>6.341878169885878</v>
+        <v>12.00030107573946</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.943604896520444</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.415013117043094</v>
       </c>
       <c r="O7">
-        <v>13.34377183770492</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.58924331060454</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.26769839506507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.32081895966745</v>
+      </c>
+      <c r="R7">
+        <v>12.47147210103453</v>
+      </c>
+      <c r="S7">
+        <v>15.60365536902329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.6704080909073</v>
+        <v>17.41415371733817</v>
       </c>
       <c r="C8">
-        <v>13.44905706234297</v>
+        <v>13.85416365761116</v>
       </c>
       <c r="D8">
-        <v>6.445640415281771</v>
+        <v>6.685152214809534</v>
       </c>
       <c r="E8">
-        <v>9.526430712538948</v>
+        <v>9.729903958423066</v>
       </c>
       <c r="F8">
-        <v>23.39033163776516</v>
+        <v>22.57286368424918</v>
       </c>
       <c r="G8">
-        <v>2.091773790388017</v>
+        <v>3.11800775034289</v>
       </c>
       <c r="H8">
-        <v>1.801259840014642</v>
+        <v>1.693613292722481</v>
       </c>
       <c r="I8">
-        <v>2.620692675061805</v>
+        <v>2.759991473438638</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.01251727037144</v>
+        <v>13.32849681426473</v>
       </c>
       <c r="L8">
-        <v>6.45311070611846</v>
+        <v>11.79085824809281</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.962512364331538</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.506289602620105</v>
       </c>
       <c r="O8">
-        <v>14.31998155522587</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.46961218013623</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.58407884698732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.28702420788112</v>
+      </c>
+      <c r="R8">
+        <v>12.39964387796667</v>
+      </c>
+      <c r="S8">
+        <v>15.8443535746935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40788856973031</v>
+        <v>20.00739056904518</v>
       </c>
       <c r="C9">
-        <v>15.42553585271626</v>
+        <v>15.97951476387513</v>
       </c>
       <c r="D9">
-        <v>6.951028514992013</v>
+        <v>7.176340988008185</v>
       </c>
       <c r="E9">
-        <v>10.14469636969192</v>
+        <v>10.2896679754021</v>
       </c>
       <c r="F9">
-        <v>24.81618607206152</v>
+        <v>23.92516656055983</v>
       </c>
       <c r="G9">
-        <v>2.082167870069045</v>
+        <v>2.171942755403207</v>
       </c>
       <c r="H9">
-        <v>1.833118136430504</v>
+        <v>1.885625420218231</v>
       </c>
       <c r="I9">
-        <v>2.976138443217818</v>
+        <v>3.049165969939817</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.96028608577702</v>
+        <v>13.23661561454708</v>
       </c>
       <c r="L9">
-        <v>6.660507684450205</v>
+        <v>11.47441178340237</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.221713609514277</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.679676977259796</v>
       </c>
       <c r="O9">
-        <v>16.06602076243861</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.25022297222113</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.268651254279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.04311178956241</v>
+      </c>
+      <c r="R9">
+        <v>12.26440637348025</v>
+      </c>
+      <c r="S9">
+        <v>16.49247647218521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.16611375407555</v>
+        <v>21.59142455955224</v>
       </c>
       <c r="C10">
-        <v>16.71779215273612</v>
+        <v>17.21026362052851</v>
       </c>
       <c r="D10">
-        <v>7.239131278056042</v>
+        <v>7.513150237811416</v>
       </c>
       <c r="E10">
-        <v>10.42650628342736</v>
+        <v>10.55907949347262</v>
       </c>
       <c r="F10">
-        <v>25.68909323083399</v>
+        <v>24.49773402043504</v>
       </c>
       <c r="G10">
-        <v>2.075633414833993</v>
+        <v>3.691486905507849</v>
       </c>
       <c r="H10">
-        <v>2.17300792966219</v>
+        <v>2.181911938136555</v>
       </c>
       <c r="I10">
-        <v>3.22239530798627</v>
+        <v>3.243854566894626</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.88998309181488</v>
+        <v>13.02842053902508</v>
       </c>
       <c r="L10">
-        <v>6.748445979615908</v>
+        <v>11.14490419045335</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.365860889418977</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.741854232620567</v>
       </c>
       <c r="O10">
-        <v>17.12096546433968</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.11551396366856</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.69870835961855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.0541691184634</v>
+      </c>
+      <c r="R10">
+        <v>12.21921627681056</v>
+      </c>
+      <c r="S10">
+        <v>16.68607951805854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.7124583487306</v>
+        <v>21.95949612756302</v>
       </c>
       <c r="C11">
-        <v>16.96549013402634</v>
+        <v>17.11779513853397</v>
       </c>
       <c r="D11">
-        <v>6.791489659338606</v>
+        <v>7.165619616110093</v>
       </c>
       <c r="E11">
-        <v>9.352237901744681</v>
+        <v>9.503255207575529</v>
       </c>
       <c r="F11">
-        <v>24.69359871091378</v>
+        <v>23.02400197731999</v>
       </c>
       <c r="G11">
-        <v>2.073807212848531</v>
+        <v>7.701535638625518</v>
       </c>
       <c r="H11">
-        <v>3.00541647181879</v>
+        <v>2.994513816685046</v>
       </c>
       <c r="I11">
-        <v>3.299239393010136</v>
+        <v>3.296331699525413</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.40832252859868</v>
+        <v>12.38479056280046</v>
       </c>
       <c r="L11">
-        <v>6.37509932212206</v>
+        <v>10.64731392275165</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.939478800552766</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.359133050896787</v>
       </c>
       <c r="O11">
-        <v>16.54616402875813</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.18562874319246</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>17.15712736231848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.37834698150725</v>
+      </c>
+      <c r="R11">
+        <v>12.39529716398339</v>
+      </c>
+      <c r="S11">
+        <v>15.74893499047404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.83735864281031</v>
+        <v>22.01943780348474</v>
       </c>
       <c r="C12">
-        <v>16.87355481650419</v>
+        <v>16.84259281657416</v>
       </c>
       <c r="D12">
-        <v>6.354088870480752</v>
+        <v>6.761618553503579</v>
       </c>
       <c r="E12">
-        <v>8.53739804511895</v>
+        <v>8.672535950345864</v>
       </c>
       <c r="F12">
-        <v>23.68207980614202</v>
+        <v>21.82621123117089</v>
       </c>
       <c r="G12">
-        <v>2.073514127896952</v>
+        <v>9.626589401076743</v>
       </c>
       <c r="H12">
-        <v>4.232124626204535</v>
+        <v>4.220992469098003</v>
       </c>
       <c r="I12">
-        <v>3.311442192337726</v>
+        <v>3.300961616832131</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.0395299043168</v>
+        <v>11.98317784065924</v>
       </c>
       <c r="L12">
-        <v>6.160825643290024</v>
+        <v>10.37171425262822</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.620237155495547</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.143833066263229</v>
       </c>
       <c r="O12">
-        <v>15.83000161848713</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.28199258562703</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.62257213429135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.61520373884677</v>
+      </c>
+      <c r="R12">
+        <v>12.54921991782656</v>
+      </c>
+      <c r="S12">
+        <v>15.06009751583838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.62989995072044</v>
+        <v>21.86420503911568</v>
       </c>
       <c r="C13">
-        <v>16.54746178270139</v>
+        <v>16.5008559457708</v>
       </c>
       <c r="D13">
-        <v>5.899884616934918</v>
+        <v>6.271780404953979</v>
       </c>
       <c r="E13">
-        <v>7.912326774554755</v>
+        <v>8.007046904646604</v>
       </c>
       <c r="F13">
-        <v>22.54948177907538</v>
+        <v>20.81458320070985</v>
       </c>
       <c r="G13">
-        <v>2.074410971573587</v>
+        <v>9.207400044111642</v>
       </c>
       <c r="H13">
-        <v>5.536277701818507</v>
+        <v>5.530691780720839</v>
       </c>
       <c r="I13">
-        <v>3.278341428990173</v>
+        <v>3.275805731617588</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.71046713368615</v>
+        <v>11.74847688990573</v>
       </c>
       <c r="L13">
-        <v>6.063227851601964</v>
+        <v>10.23357371186167</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.382036620386412</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.052977340497987</v>
       </c>
       <c r="O13">
-        <v>14.942927915705</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.40336137772571</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>16.02798989598534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.73832354947245</v>
+      </c>
+      <c r="R13">
+        <v>12.67020664599079</v>
+      </c>
+      <c r="S13">
+        <v>14.56566366864691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.32743833000541</v>
+        <v>21.65064278840522</v>
       </c>
       <c r="C14">
-        <v>16.21565260197402</v>
+        <v>16.23061528558909</v>
       </c>
       <c r="D14">
-        <v>5.577339343695009</v>
+        <v>5.897345680159429</v>
       </c>
       <c r="E14">
-        <v>7.614818391065039</v>
+        <v>7.680482292728873</v>
       </c>
       <c r="F14">
-        <v>21.69140659428397</v>
+        <v>20.17111477209769</v>
       </c>
       <c r="G14">
-        <v>2.075576909425872</v>
+        <v>7.882363202075379</v>
       </c>
       <c r="H14">
-        <v>6.475778774230208</v>
+        <v>6.474575258808284</v>
       </c>
       <c r="I14">
-        <v>3.235739366323897</v>
+        <v>3.245864228696571</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.49669330832668</v>
+        <v>11.6491042872852</v>
       </c>
       <c r="L14">
-        <v>6.067004390143664</v>
+        <v>10.18767060476016</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.247035942473627</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.064899505261608</v>
       </c>
       <c r="O14">
-        <v>14.2335406436354</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.50037921701959</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.57848795945412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.06060750147499</v>
+      </c>
+      <c r="R14">
+        <v>12.73834917330719</v>
+      </c>
+      <c r="S14">
+        <v>14.29323405570933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.17596069401125</v>
+        <v>21.5436308519339</v>
       </c>
       <c r="C15">
-        <v>16.09253586320962</v>
+        <v>16.15362309098813</v>
       </c>
       <c r="D15">
-        <v>5.495449573485427</v>
+        <v>5.792713570277244</v>
       </c>
       <c r="E15">
-        <v>7.561487619052233</v>
+        <v>7.622747786047233</v>
       </c>
       <c r="F15">
-        <v>21.45110261859697</v>
+        <v>20.03751820257722</v>
       </c>
       <c r="G15">
-        <v>2.076134595909752</v>
+        <v>7.118479681796447</v>
       </c>
       <c r="H15">
-        <v>6.689500300621306</v>
+        <v>6.690009246243537</v>
       </c>
       <c r="I15">
-        <v>3.216626329004484</v>
+        <v>3.233508950175028</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.44863512798727</v>
+        <v>11.64910313099968</v>
       </c>
       <c r="L15">
-        <v>6.075502834854496</v>
+        <v>10.19605172729197</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.224089717574481</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.077021305940739</v>
       </c>
       <c r="O15">
-        <v>14.02347958426529</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.52874722254579</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.45168478787125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.86869432102968</v>
+      </c>
+      <c r="R15">
+        <v>12.74763667692072</v>
+      </c>
+      <c r="S15">
+        <v>14.25445238067176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.47768381815937</v>
+        <v>21.0375007959955</v>
       </c>
       <c r="C16">
-        <v>15.61946808923223</v>
+        <v>15.93730465735625</v>
       </c>
       <c r="D16">
-        <v>5.452033245886753</v>
+        <v>5.66729958425648</v>
       </c>
       <c r="E16">
-        <v>7.548208862321984</v>
+        <v>7.629766876734659</v>
       </c>
       <c r="F16">
-        <v>21.25897569391039</v>
+        <v>20.29435019628184</v>
       </c>
       <c r="G16">
-        <v>2.078744296543326</v>
+        <v>3.529014226836065</v>
       </c>
       <c r="H16">
-        <v>6.442995734237603</v>
+        <v>6.437182307877213</v>
       </c>
       <c r="I16">
-        <v>3.120549168303434</v>
+        <v>3.16750759995887</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.53757308304611</v>
+        <v>11.90334550108121</v>
       </c>
       <c r="L16">
-        <v>6.050727210055002</v>
+        <v>10.40497116810908</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.338566578630709</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.067457368389522</v>
       </c>
       <c r="O16">
-        <v>13.70711145076421</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.55035721758187</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.3621284794882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.63859894137291</v>
+      </c>
+      <c r="R16">
+        <v>12.66990415859829</v>
+      </c>
+      <c r="S16">
+        <v>14.53423167268029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.0980877714115</v>
+        <v>20.73585975277562</v>
       </c>
       <c r="C17">
-        <v>15.43575431421022</v>
+        <v>15.87973835045705</v>
       </c>
       <c r="D17">
-        <v>5.59152751107046</v>
+        <v>5.779266976691227</v>
       </c>
       <c r="E17">
-        <v>7.671003228569368</v>
+        <v>7.771187206391553</v>
       </c>
       <c r="F17">
-        <v>21.57718564652048</v>
+        <v>20.78792922190354</v>
       </c>
       <c r="G17">
-        <v>2.080135835047261</v>
+        <v>2.123903520988414</v>
       </c>
       <c r="H17">
-        <v>5.6919292720665</v>
+        <v>5.681798636256983</v>
       </c>
       <c r="I17">
-        <v>3.069474319954884</v>
+        <v>3.131547625176736</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.71773342678478</v>
+        <v>12.13520049688285</v>
       </c>
       <c r="L17">
-        <v>6.018250123126326</v>
+        <v>10.58961160714357</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.476368851976842</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.041697683650825</v>
       </c>
       <c r="O17">
-        <v>13.8554844003987</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.51724430631621</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.5365434289326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.82472558374823</v>
+      </c>
+      <c r="R17">
+        <v>12.59072470040015</v>
+      </c>
+      <c r="S17">
+        <v>14.85183517989942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.97312799474954</v>
+        <v>20.62804592921464</v>
       </c>
       <c r="C18">
-        <v>15.4670822503362</v>
+        <v>15.99225406684946</v>
       </c>
       <c r="D18">
-        <v>5.912208437813164</v>
+        <v>6.094130192152857</v>
       </c>
       <c r="E18">
-        <v>8.061342645809736</v>
+        <v>8.173094931312722</v>
       </c>
       <c r="F18">
-        <v>22.3832030657568</v>
+        <v>21.64322706429327</v>
       </c>
       <c r="G18">
-        <v>2.080565210063405</v>
+        <v>1.637854898048771</v>
       </c>
       <c r="H18">
-        <v>4.439802062223842</v>
+        <v>4.458129578721872</v>
       </c>
       <c r="I18">
-        <v>3.049453501383517</v>
+        <v>3.115968835493157</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.009767076127</v>
+        <v>12.42166146337085</v>
       </c>
       <c r="L18">
-        <v>6.043684174403477</v>
+        <v>10.80403240259361</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.689013248120867</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.067698124329838</v>
       </c>
       <c r="O18">
-        <v>14.42204781517553</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.43497370171731</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.96717012788494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.40890134079678</v>
+      </c>
+      <c r="R18">
+        <v>12.48660443839436</v>
+      </c>
+      <c r="S18">
+        <v>15.32223518525986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.03852813471298</v>
+        <v>20.67375939565366</v>
       </c>
       <c r="C19">
-        <v>15.71397552113399</v>
+        <v>16.30104856997572</v>
       </c>
       <c r="D19">
-        <v>6.373030861892371</v>
+        <v>6.559875780683459</v>
       </c>
       <c r="E19">
-        <v>8.806117903355396</v>
+        <v>8.921983089976075</v>
       </c>
       <c r="F19">
-        <v>23.47948054823674</v>
+        <v>22.71995083243117</v>
       </c>
       <c r="G19">
-        <v>2.080154655252345</v>
+        <v>1.472693313875691</v>
       </c>
       <c r="H19">
-        <v>3.063962007126606</v>
+        <v>3.090447483930547</v>
       </c>
       <c r="I19">
-        <v>3.065373921823729</v>
+        <v>3.130177293602574</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.34794754596436</v>
+        <v>12.72317568959951</v>
       </c>
       <c r="L19">
-        <v>6.21048709055792</v>
+        <v>11.01995612855692</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.938121813868035</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.229943633564276</v>
       </c>
       <c r="O19">
-        <v>15.27313338593113</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.33333658976076</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.53824182715765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.26714744899635</v>
+      </c>
+      <c r="R19">
+        <v>12.37728294148259</v>
+      </c>
+      <c r="S19">
+        <v>15.87752856224201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.67560215393802</v>
+        <v>21.19752730851841</v>
       </c>
       <c r="C20">
-        <v>16.45805670444736</v>
+        <v>17.06043677267812</v>
       </c>
       <c r="D20">
-        <v>7.173672147775158</v>
+        <v>7.400542262639655</v>
       </c>
       <c r="E20">
-        <v>10.34973761632923</v>
+        <v>10.4701148281375</v>
       </c>
       <c r="F20">
-        <v>25.39021972967204</v>
+        <v>24.4258233502923</v>
       </c>
       <c r="G20">
-        <v>2.077381589523906</v>
+        <v>2.104640475061395</v>
       </c>
       <c r="H20">
-        <v>2.081367603864272</v>
+        <v>2.106321430174291</v>
       </c>
       <c r="I20">
-        <v>3.167009669970066</v>
+        <v>3.209327774786854</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.85349868628783</v>
+        <v>13.09628784811911</v>
       </c>
       <c r="L20">
-        <v>6.720988422028775</v>
+        <v>11.23919409918259</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.336173112785069</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.723290227455555</v>
       </c>
       <c r="O20">
-        <v>16.84674214158361</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.15911672700829</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.52894088662636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.82051215814093</v>
+      </c>
+      <c r="R20">
+        <v>12.22520940635852</v>
+      </c>
+      <c r="S20">
+        <v>16.70279656780846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.00017893562457</v>
+        <v>22.12554231925782</v>
       </c>
       <c r="C21">
-        <v>17.45230080811147</v>
+        <v>17.54153544493235</v>
       </c>
       <c r="D21">
-        <v>7.491870314098106</v>
+        <v>7.940969951721763</v>
       </c>
       <c r="E21">
-        <v>10.79065275889724</v>
+        <v>10.98977658345854</v>
       </c>
       <c r="F21">
-        <v>26.31487290378469</v>
+        <v>24.34433783150675</v>
       </c>
       <c r="G21">
-        <v>2.072270356946659</v>
+        <v>9.38413552744419</v>
       </c>
       <c r="H21">
-        <v>2.35409707242815</v>
+        <v>2.323581280397245</v>
       </c>
       <c r="I21">
-        <v>3.357421996918279</v>
+        <v>3.338799938131975</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.89656009979169</v>
+        <v>12.68511289727392</v>
       </c>
       <c r="L21">
-        <v>6.87471041035699</v>
+        <v>10.83241992896606</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.233939100924568</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.847192490886049</v>
       </c>
       <c r="O21">
-        <v>17.80733597063685</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.03895900314295</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>18.00397894079678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.59822002640033</v>
+      </c>
+      <c r="R21">
+        <v>12.26088685205941</v>
+      </c>
+      <c r="S21">
+        <v>16.34503765837231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.83072315875905</v>
+        <v>22.69261905969353</v>
       </c>
       <c r="C22">
-        <v>18.03012031019892</v>
+        <v>17.76520864749922</v>
       </c>
       <c r="D22">
-        <v>7.656150444860113</v>
+        <v>8.26403470241517</v>
       </c>
       <c r="E22">
-        <v>10.99580895583135</v>
+        <v>11.25713829386245</v>
       </c>
       <c r="F22">
-        <v>26.85983669033306</v>
+        <v>24.18682206638451</v>
       </c>
       <c r="G22">
-        <v>2.06903871533508</v>
+        <v>14.48442226870953</v>
       </c>
       <c r="H22">
-        <v>2.523017763577747</v>
+        <v>2.457922380758829</v>
       </c>
       <c r="I22">
-        <v>3.474379831604022</v>
+        <v>3.41634071539811</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.9260663704452</v>
+        <v>12.39284483204886</v>
       </c>
       <c r="L22">
-        <v>6.945597794432514</v>
+        <v>10.5676564147444</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.14524655589261</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.900450058977022</v>
       </c>
       <c r="O22">
-        <v>18.35176643333235</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.96545336151387</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.29553658709539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.01578878833837</v>
+      </c>
+      <c r="R22">
+        <v>12.3057050865518</v>
+      </c>
+      <c r="S22">
+        <v>16.05020216922045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.40620810972844</v>
+        <v>22.44324656286325</v>
       </c>
       <c r="C23">
-        <v>17.69795675427235</v>
+        <v>17.68530963720192</v>
       </c>
       <c r="D23">
-        <v>7.564312831517962</v>
+        <v>8.061495653689597</v>
       </c>
       <c r="E23">
-        <v>10.8855984499669</v>
+        <v>11.10059923771002</v>
       </c>
       <c r="F23">
-        <v>26.59229284358275</v>
+        <v>24.39916314722246</v>
       </c>
       <c r="G23">
-        <v>2.070739337784505</v>
+        <v>10.95393774817958</v>
       </c>
       <c r="H23">
-        <v>2.433869122452252</v>
+        <v>2.389427173916945</v>
       </c>
       <c r="I23">
-        <v>3.408854654471649</v>
+        <v>3.372699554241216</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.92902915393485</v>
+        <v>12.61109057857428</v>
       </c>
       <c r="L23">
-        <v>6.908673936928005</v>
+        <v>10.74589561506971</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.250285084076802</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.873710060609817</v>
       </c>
       <c r="O23">
-        <v>18.06252478560013</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.0009930955479</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>18.15880552364836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.81460418296904</v>
+      </c>
+      <c r="R23">
+        <v>12.26308631337631</v>
+      </c>
+      <c r="S23">
+        <v>16.31432840664604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.6955142352274</v>
+        <v>21.21777795835123</v>
       </c>
       <c r="C24">
-        <v>16.43187606070682</v>
+        <v>17.04344185469479</v>
       </c>
       <c r="D24">
-        <v>7.215933959700477</v>
+        <v>7.441819563977223</v>
       </c>
       <c r="E24">
-        <v>10.4606727510149</v>
+        <v>10.58065684724427</v>
       </c>
       <c r="F24">
-        <v>25.53708654022439</v>
+        <v>24.57663883802736</v>
       </c>
       <c r="G24">
-        <v>2.077334095188166</v>
+        <v>2.053136106775603</v>
       </c>
       <c r="H24">
-        <v>2.087929898820253</v>
+        <v>2.112944152460607</v>
       </c>
       <c r="I24">
-        <v>3.161621689223489</v>
+        <v>3.202037715081093</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.92182111007544</v>
+        <v>13.16148613613359</v>
       </c>
       <c r="L24">
-        <v>6.764960991800188</v>
+        <v>11.28620027982667</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.388833972041148</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.766841386836081</v>
       </c>
       <c r="O24">
-        <v>16.92622884500581</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.14608002124972</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.61698802604289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.90183684052758</v>
+      </c>
+      <c r="R24">
+        <v>12.20897369541554</v>
+      </c>
+      <c r="S24">
+        <v>16.79399435951443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.68026240132499</v>
+        <v>19.3394829307673</v>
       </c>
       <c r="C25">
-        <v>14.95960052450209</v>
+        <v>15.51640463753369</v>
       </c>
       <c r="D25">
-        <v>6.824619949228702</v>
+        <v>7.038712577275885</v>
       </c>
       <c r="E25">
-        <v>9.983156719775197</v>
+        <v>10.13674493392548</v>
       </c>
       <c r="F25">
-        <v>24.39314196997054</v>
+        <v>23.58599693249595</v>
       </c>
       <c r="G25">
-        <v>2.084728441927508</v>
+        <v>2.087728113401342</v>
       </c>
       <c r="H25">
-        <v>1.698626471244713</v>
+        <v>1.767129421086008</v>
       </c>
       <c r="I25">
-        <v>2.886658671591579</v>
+        <v>2.980562985077152</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.94029951678835</v>
+        <v>13.25679279737539</v>
       </c>
       <c r="L25">
-        <v>6.604383634960138</v>
+        <v>11.55726158079074</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.133036806309523</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.633462361402574</v>
       </c>
       <c r="O25">
-        <v>15.61335290405303</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.31202692852303</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.04912328641774</v>
+        <v>15.60086971079538</v>
+      </c>
+      <c r="R25">
+        <v>12.29868640048495</v>
+      </c>
+      <c r="S25">
+        <v>16.33635543700878</v>
       </c>
     </row>
   </sheetData>
